--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1544.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1544.xlsx
@@ -351,10 +351,10 @@
         <v>1.329146761467229</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.542647917087391</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1544.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1544.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.329146761467229</v>
+        <v>1.630566596984863</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>3.356980323791504</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.43468189239502</v>
       </c>
       <c r="D1">
-        <v>1.542647917087391</v>
+        <v>1.369585633277893</v>
       </c>
       <c r="E1">
-        <v>0.8745481532259197</v>
+        <v>0.7978681921958923</v>
       </c>
     </row>
   </sheetData>
